--- a/simulations/raw_inclusion_exclusion/Sep_2021 IEC/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Sep_2021 IEC/output/tables/time_to_discovery/tds_sim.xlsx
@@ -422,10 +422,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -447,10 +447,10 @@
         <v>41</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>25.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,10 +458,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -480,10 +480,10 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D8">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -502,10 +502,10 @@
         <v>21</v>
       </c>
       <c r="C10">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="D10">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -524,10 +524,10 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D12">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -546,10 +546,10 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -568,10 +568,10 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="D16">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -590,10 +590,10 @@
         <v>41</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -612,10 +612,10 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -634,10 +634,10 @@
         <v>61</v>
       </c>
       <c r="C22">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D22">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -656,10 +656,10 @@
         <v>65</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -678,10 +678,10 @@
         <v>68</v>
       </c>
       <c r="C26">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D26">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -700,10 +700,10 @@
         <v>79</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -711,10 +711,10 @@
         <v>87</v>
       </c>
       <c r="C29">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D29">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -733,10 +733,10 @@
         <v>97</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -755,10 +755,10 @@
         <v>103</v>
       </c>
       <c r="C33">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D33">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -777,10 +777,10 @@
         <v>106</v>
       </c>
       <c r="C35">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D35">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -799,10 +799,10 @@
         <v>109</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -821,10 +821,10 @@
         <v>117</v>
       </c>
       <c r="C39">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D39">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -843,10 +843,10 @@
         <v>121</v>
       </c>
       <c r="C41">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D41">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -879,10 +879,10 @@
         <v>233</v>
       </c>
       <c r="C44">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D44">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -890,10 +890,10 @@
         <v>127</v>
       </c>
       <c r="C45">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D45">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -901,10 +901,10 @@
         <v>128</v>
       </c>
       <c r="C46">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D46">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -934,10 +934,10 @@
         <v>161</v>
       </c>
       <c r="C49">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D49">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -945,10 +945,10 @@
         <v>162</v>
       </c>
       <c r="C50">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D50">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -967,10 +967,10 @@
         <v>178</v>
       </c>
       <c r="C52">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D52">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -989,10 +989,10 @@
         <v>192</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1011,10 +1011,10 @@
         <v>201</v>
       </c>
       <c r="C56">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D56">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1033,10 +1033,10 @@
         <v>208</v>
       </c>
       <c r="C58">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1066,10 +1066,10 @@
         <v>213</v>
       </c>
       <c r="C61">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D61">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1099,10 +1099,10 @@
         <v>217</v>
       </c>
       <c r="C64">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D64">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1121,10 +1121,10 @@
         <v>247</v>
       </c>
       <c r="C66">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D66">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1165,10 +1165,10 @@
         <v>252</v>
       </c>
       <c r="C70">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D70">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1212,10 +1212,10 @@
         <v>257</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D74">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1223,10 +1223,10 @@
         <v>258</v>
       </c>
       <c r="C75">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D75">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1245,10 +1245,10 @@
         <v>261</v>
       </c>
       <c r="C77">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D77">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1259,7 +1259,7 @@
         <v>83.25641025641026</v>
       </c>
       <c r="C78">
-        <v>83.175</v>
+        <v>84.59999999999999</v>
       </c>
     </row>
   </sheetData>
